--- a/biology/Histoire de la zoologie et de la botanique/Henri_Schouteden/Henri_Schouteden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Schouteden/Henri_Schouteden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Schouteden est un zoologiste, ornithologue et entomologiste belge, né le 9 juillet 1881 à Bruxelles et mort le 15 novembre 1972 dans cette même ville.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1905, il obtient le diplôme de Docteur en Sciences Naturelles à l'Université de Bruxelles. Jusqu'en 1910, il travailla au Musée d'Histoire Naturelle de Bruxelles, puis au Musée du Congo belge à Tervuren.
 En 1911, il fonde la Revue de Zoologie et de Botanique africaine.
 Il effectua une première mission au Congo (Mayombe, Équateur, Bas-Congo, Kasaï) entre 1921 à 1923, récoltant d'importantes collections zoologiques, puis une seconde de 1923 à 1926 dans le nord et l'est du Congo (Uele, Iturl, Kivu, Katanga) encore plus riche de découvertes.
 À Anvers, il a enseigné la zoologie à l'Université coloniale de Belgique, puis de 1927 à 1952, l'entomologie médicale à l'Institut de Médecine Tropicale.
 En 1927, il est aussi nommé Directeur du Musée du Congo belge, charge qu'il occupa jusqu'en 1947.
-Il publie avec Gaston-François de Witte en 1934 Batraciens récoltés au Congo Belge par le Dr H. Schouteden et par M. G.-F. de Witte[1],[2].
+Il publie avec Gaston-François de Witte en 1934 Batraciens récoltés au Congo Belge par le Dr H. Schouteden et par M. G.-F. de Witte,.
 En 1963, il reçoit le Prix décennal des Sciences zoologiques et fonde ensuite le Prix Schouteden récompensant des travaux de Zoologie systématique.
 </t>
         </is>
